--- a/POMFramework/TestData/Data.xlsx
+++ b/POMFramework/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>fname</t>
   </si>
@@ -42,13 +42,10 @@
     <t>123456789</t>
   </si>
   <si>
-    <t>t128@yopmail.com</t>
-  </si>
-  <si>
-    <t>t129@yopmail.com</t>
-  </si>
-  <si>
-    <t>t130@yopmail.com</t>
+    <t>t135@yopmail.com</t>
+  </si>
+  <si>
+    <t>t136@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +403,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -459,35 +456,6 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -499,10 +467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -523,14 +491,6 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/POMFramework/TestData/Data.xlsx
+++ b/POMFramework/TestData/Data.xlsx
@@ -42,10 +42,10 @@
     <t>123456789</t>
   </si>
   <si>
-    <t>t135@yopmail.com</t>
-  </si>
-  <si>
-    <t>t136@yopmail.com</t>
+    <t>t137@yopmail.com</t>
+  </si>
+  <si>
+    <t>t138@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
